--- a/Attendees.xlsx
+++ b/Attendees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOSS J\Desktop\meetAndGreet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474075CC-BBD1-4FAE-AE51-6019CEA71168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1725F-219D-4F1B-9DAF-3A84EE144BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC939474-14E0-4D17-AABC-9898A3372639}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -107,19 +107,28 @@
     <t>bb</t>
   </si>
   <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Matched</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Travel</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Ethics</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>Faye</t>
+  </si>
+  <si>
+    <t>lz</t>
   </si>
 </sst>
 </file>
@@ -491,388 +500,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A6641-0A3C-42C2-82C2-B7D297AFD464}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
         <v>10</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
         <v>10</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
         <v>10</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -881,6 +920,85 @@
         <v>2</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
     </row>

--- a/Attendees.xlsx
+++ b/Attendees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOSS J\Desktop\meetAndGreet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1725F-219D-4F1B-9DAF-3A84EE144BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69C42CD-BCFF-4A3E-AE15-CEAE7C93B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC939474-14E0-4D17-AABC-9898A3372639}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>lz</t>
+  </si>
+  <si>
+    <t>Board games</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>sv</t>
   </si>
 </sst>
 </file>
@@ -500,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A6641-0A3C-42C2-82C2-B7D297AFD464}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +554,11 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -583,8 +595,11 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -621,8 +636,11 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -659,8 +677,11 @@
       <c r="L4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -697,8 +718,11 @@
       <c r="L5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -735,8 +759,11 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -773,8 +800,11 @@
       <c r="L7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -811,8 +841,11 @@
       <c r="L8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -849,8 +882,11 @@
       <c r="L9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -887,8 +923,11 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -925,8 +964,11 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -963,8 +1005,11 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1000,6 +1045,50 @@
       </c>
       <c r="L13">
         <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
